--- a/config/excelFile/开局配置表.xlsx
+++ b/config/excelFile/开局配置表.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -395,10 +395,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -406,10 +406,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -417,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -428,10 +428,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
